--- a/config/20230925科目标签&居民消费支出分类（对公、对私）.xlsx
+++ b/config/20230925科目标签&居民消费支出分类（对公、对私）.xlsx
@@ -189,7 +189,7 @@
     <t>购买基金、股票、证券、银行理财等产品的费用。</t>
   </si>
   <si>
-    <t>证券、基金、</t>
+    <t>购买证券、基金、理财产品等</t>
   </si>
   <si>
     <t>基金、证券、银行、人寿保险类机构</t>
@@ -485,7 +485,7 @@
     <t>经营收入之外的不稳定、不持续的额外所得费用，比如补贴、红包、投资收益、结息等；</t>
   </si>
   <si>
-    <t>收益、庆祝红包、佣金、退款、结息、利息、房租</t>
+    <t>收益、庆祝红包、佣金、退款、结息、利息、房租、二维码收款等。</t>
   </si>
   <si>
     <t>对公账户的科目标签</t>
@@ -3502,7 +3502,35 @@
     <t>080206</t>
   </si>
   <si>
-    <t>未列明的其他服务</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未列明的其他服务。
+扫码付，扫二维码，线上支付</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商户消费，消费，服务费等</t>
+    </r>
   </si>
   <si>
     <t>指其他未另列明的服务支出，包括：</t>
@@ -3558,6 +3586,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3767,12 +3801,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4153,16 +4181,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4171,119 +4196,122 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4322,74 +4350,78 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4742,696 +4774,696 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="14.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="23.25" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="14.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="38"/>
+      <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="45.75" customHeight="1" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="35" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="39"/>
+      <c r="G11" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="22" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="22" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="22" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="22" t="s">
+      <c r="F20" s="38"/>
+      <c r="G20" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="38"/>
+      <c r="G26" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="22" t="s">
+      <c r="F30" s="39"/>
+      <c r="G30" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="32" t="s">
+      <c r="E31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="38"/>
+      <c r="G33" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" ht="32.25" customHeight="1" spans="1:7">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="35" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="22" t="s">
+      <c r="F35" s="38"/>
+      <c r="G35" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5481,713 +5513,713 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B26"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="32.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="14"/>
-    <col min="2" max="2" width="15.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="10.375" style="14"/>
+    <col min="1" max="1" width="10.375" style="16"/>
+    <col min="2" max="2" width="15.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="10.375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="47.25" customHeight="1" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="26"/>
+      <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="26"/>
+      <c r="G12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22" t="s">
+      <c r="F19" s="26"/>
+      <c r="G19" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="22" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="22" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="22" t="s">
+      <c r="F22" s="26"/>
+      <c r="G22" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" ht="82" customHeight="1" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="26"/>
+      <c r="G26" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" ht="42" customHeight="1" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" ht="45.75" customHeight="1" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="26"/>
+      <c r="G33" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="34" t="s">
+      <c r="G35" s="36" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="22" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="24" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6234,10 +6266,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E531"/>
+  <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="E264" sqref="E264"/>
+    <sheetView topLeftCell="A489" workbookViewId="0">
+      <selection activeCell="E503" sqref="E503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -14082,13 +14114,13 @@
         <v>780</v>
       </c>
     </row>
-    <row r="529" ht="22.5" spans="1:5">
+    <row r="529" ht="79.5" spans="1:5">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="D529" s="9" t="s">
+      <c r="D529" s="14" t="s">
         <v>782</v>
       </c>
       <c r="E529" s="12" t="s">
@@ -14120,6 +14152,13 @@
       <c r="E531" s="9" t="s">
         <v>784</v>
       </c>
+    </row>
+    <row r="532" spans="5:5">
+      <c r="E532" s="15"/>
+    </row>
+    <row r="533" spans="4:5">
+      <c r="D533" s="15"/>
+      <c r="E533" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/config/20230925科目标签&居民消费支出分类（对公、对私）.xlsx
+++ b/config/20230925科目标签&居民消费支出分类（对公、对私）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="对私" sheetId="2" r:id="rId1"/>
@@ -485,7 +485,7 @@
     <t>经营收入之外的不稳定、不持续的额外所得费用，比如补贴、红包、投资收益、结息等；</t>
   </si>
   <si>
-    <t>收益、庆祝红包、佣金、退款、结息、利息、房租、二维码收款等。</t>
+    <t>收益、庆祝红包、微信红包、佣金、退款、结息、利息、房租、二维码,收钱码收款等。</t>
   </si>
   <si>
     <t>对公账户的科目标签</t>
@@ -3502,35 +3502,7 @@
     <t>080206</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未列明的其他服务。
-扫码付，扫二维码，线上支付</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商户消费，消费，服务费等</t>
-    </r>
+    <t>其他服务。扫码付，扫二维码付款，线上支付，商户消费，消费，服务费等。</t>
   </si>
   <si>
     <t>指其他未另列明的服务支出，包括：</t>
@@ -4774,8 +4746,8 @@
   <sheetPr/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.75" customHeight="1" outlineLevelCol="6"/>
@@ -6268,8 +6240,8 @@
   <sheetPr/>
   <dimension ref="A1:E533"/>
   <sheetViews>
-    <sheetView topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="E503" sqref="E503"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="D529" sqref="D529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -14114,7 +14086,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="529" ht="79.5" spans="1:5">
+    <row r="529" ht="67.5" spans="1:5">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="7" t="s">
